--- a/www/terminologies/ValueSet-jdv-cause-accident-domestique-cisis.xlsx
+++ b/www/terminologies/ValueSet-jdv-cause-accident-domestique-cisis.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20250606103858</t>
+    <t>20250624152100</t>
   </si>
   <si>
     <t>Name</t>
@@ -67,7 +67,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-06T10:38:58+01:00</t>
+    <t>2025-06-24T15:21:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -124,13 +124,13 @@
     <t>NE2Z</t>
   </si>
   <si>
-    <t>Brûlures, sans précision</t>
+    <t>Brulures, sans précision</t>
   </si>
   <si>
     <t>NE61</t>
   </si>
   <si>
-    <t>Intoxication SAI</t>
+    <t>Effets nocifs ou exposition à des substances nocives, principalement d'origine nonmédicinale, non classés ailleurs</t>
   </si>
   <si>
     <t>https://smt.esante.gouv.fr/terminologie-cim11-mms</t>

--- a/www/terminologies/ValueSet-jdv-cause-accident-domestique-cisis.xlsx
+++ b/www/terminologies/ValueSet-jdv-cause-accident-domestique-cisis.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20250624152100</t>
+    <t>20251216141839</t>
   </si>
   <si>
     <t>Name</t>
@@ -67,7 +67,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T15:21:00+01:00</t>
+    <t>2025-12-16T14:18:39+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -133,7 +133,7 @@
     <t>Effets nocifs ou exposition à des substances nocives, principalement d'origine nonmédicinale, non classés ailleurs</t>
   </si>
   <si>
-    <t>https://smt.esante.gouv.fr/terminologie-cim11-mms</t>
+    <t>http://id.who.int/icd/release/11/mms</t>
   </si>
 </sst>
 </file>
